--- a/src/test/resources/GorestUserData.xlsx
+++ b/src/test/resources/GorestUserData.xlsx
@@ -102,16 +102,16 @@
     <t>19-09-1987</t>
   </si>
   <si>
-    <t>abc1@gmail.com</t>
-  </si>
-  <si>
-    <t>abc2@gmail.com</t>
-  </si>
-  <si>
-    <t>abc3@gmail.com</t>
-  </si>
-  <si>
-    <t>abc4@gmail.com</t>
+    <t>abc5@gmail.com</t>
+  </si>
+  <si>
+    <t>abc6@gmail.com</t>
+  </si>
+  <si>
+    <t>abc7@gmail.com</t>
+  </si>
+  <si>
+    <t>abc8@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/GorestUserData.xlsx
+++ b/src/test/resources/GorestUserData.xlsx
@@ -102,16 +102,16 @@
     <t>19-09-1987</t>
   </si>
   <si>
-    <t>abc5@gmail.com</t>
-  </si>
-  <si>
-    <t>abc6@gmail.com</t>
-  </si>
-  <si>
-    <t>abc7@gmail.com</t>
-  </si>
-  <si>
-    <t>abc8@gmail.com</t>
+    <t>abc9@gmail.com</t>
+  </si>
+  <si>
+    <t>abc10@gmail.com</t>
+  </si>
+  <si>
+    <t>abc11@gmail.com</t>
+  </si>
+  <si>
+    <t>abc12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -618,12 +618,12 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="E4" r:id="rId7"/>
+    <hyperlink ref="E3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/GorestUserData.xlsx
+++ b/src/test/resources/GorestUserData.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/src/test/resources/GorestUserData.xlsx
+++ b/src/test/resources/GorestUserData.xlsx
@@ -102,16 +102,16 @@
     <t>19-09-1987</t>
   </si>
   <si>
-    <t>abc9@gmail.com</t>
-  </si>
-  <si>
-    <t>abc10@gmail.com</t>
-  </si>
-  <si>
-    <t>abc11@gmail.com</t>
-  </si>
-  <si>
-    <t>abc12@gmail.com</t>
+    <t>abc1111@gmail.com</t>
+  </si>
+  <si>
+    <t>abc1112@gmail.com</t>
+  </si>
+  <si>
+    <t>abc1113@gmail.com</t>
+  </si>
+  <si>
+    <t>abc1114@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -621,9 +621,10 @@
     <hyperlink ref="G3" r:id="rId3"/>
     <hyperlink ref="G4" r:id="rId4"/>
     <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="E4" r:id="rId7"/>
-    <hyperlink ref="E3" r:id="rId8"/>
+    <hyperlink ref="E3:E5" r:id="rId6" display="abc1111@gmail.com"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="E4" r:id="rId8"/>
+    <hyperlink ref="E5" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
